--- a/resources/chunks/10000000.xlsx
+++ b/resources/chunks/10000000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="6">
   <si>
     <t>ground</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>door</t>
+  </si>
+  <si>
+    <t>treeLi</t>
+  </si>
+  <si>
+    <t>treeEl</t>
   </si>
 </sst>
 </file>
@@ -68,70 +74,1577 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="198">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -170,6 +1683,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF128017"/>
+      <color rgb="FF21C94D"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,7 +1980,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1"/>
@@ -471,10 +1990,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="54" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -486,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -498,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
@@ -521,7 +2040,7 @@
     </row>
     <row r="2" spans="1:16" ht="54" customHeight="1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -548,16 +2067,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
@@ -571,7 +2090,7 @@
     </row>
     <row r="3" spans="1:16" ht="54" customHeight="1">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -589,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -610,18 +2129,18 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="54" customHeight="1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -636,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -648,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
@@ -660,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>1</v>
@@ -671,22 +2190,22 @@
     </row>
     <row r="5" spans="1:16" ht="54" customHeight="1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -695,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>1</v>
@@ -721,7 +2240,7 @@
     </row>
     <row r="6" spans="1:16" ht="54" customHeight="1">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -771,7 +2290,7 @@
     </row>
     <row r="7" spans="1:16" ht="54" customHeight="1">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -824,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -874,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -951,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
         <v>1</v>
@@ -974,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -983,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -1027,16 +2546,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -1045,7 +2564,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
@@ -1071,17 +2590,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="road">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="road">
       <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="water">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="water">
       <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="ground">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="ground">
       <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="door">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="door">
       <formula>NOT(ISERROR(SEARCH("door",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"treeEl"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
